--- a/Config/case.xlsx
+++ b/Config/case.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="232">
   <si>
     <t>testNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,27 +868,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"logtype":"smsSendRecord11_0","request":'[{"appid":"100IME","channel":"tencent","content":"【科大讯飞test】您好，您本次操作的验证码为1452，序号为725。请在50分钟内使用，过期无效。","extra":"--","ltm":"--","phone":"18856361920","sid":"14:110321731234","status":"--","stm":"2018-08-28 14:53:58","tid":"1"}]',"cpname":"BaseAbility","appid":"CB2W28VA","localip":"127.0.0.1","event":"smsSendRecord","room":"hefei"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"query": {"match": {"sid": "14:110321731234"}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"query": {"match": {"sid": "14:110321731234"}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_14:110321731234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"thirdParty":"false", "s.n":"drip-sms-record", "cpname":"BaseAbility", "port":"8189", "localip":"127.0.0.1", "ismonitor":"false", "currentQueueSize":"0", "isbyte":"false", "room":"hefei", "collectionName":"drip-sms-record1", "timestamp":"1535592115000","event":"smsSendRecord"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"query": {"match": {"sid": "1:15356108237303550056361920999"}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsRecord100IME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"query": {"match": {"sid": "1:15356108237303550056361920999"}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"logtype":"smsSendRecord11_0","request":'[{"appid":"100IME","channel":"tencent","content":"【科大讯飞test】您好，您本次操作的验证码为074665，序号为72555。请在50分钟内使用，过期无效。","extra":"--","ltm":"--","phone":"18856361920","sid":"14:10321731277","status":"--","stm":"2018-08-29 18:26:58","tid":"1"}]',"cpname":"BaseAbility","appid":"CB2W28VA","localip":"127.0.0.1","event":"smsSendRecord","room":"hefei"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"logtype":"smsSendRecord11_0","request":'[{"appid":"100IME","channel":"tencent","content":"【科大讯飞test】您好，您本次操作的验证码为1452，序号为725。请在50分钟内使用，过期无效。","extra":"--","ltm":"--","phone":"18856361920","sid":"14:110321731234","status":"--","stm":"2018-08-28 14:53:58","tid":"1"}]',"cpname":"BaseAbility","appid":"CB2W28VA","localip":"127.0.0.1","event":"smsSendRecord","room":"hefei"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"query": {"match": {"sid": "14:110321731234"}}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"query": {"match": {"sid": "14:110321731234"}}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_14:110321731234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"thirdParty":"false", "s.n":"drip-sms-record", "cpname":"BaseAbility", "port":"8189", "localip":"127.0.0.1", "ismonitor":"false", "currentQueueSize":"0", "isbyte":"false", "room":"hefei", "collectionName":"drip-sms-record1", "timestamp":"1535592115000","event":"smsSendRecord"}</t>
+    <t>18856361920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3508,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="M29" activeCellId="1" sqref="L29 M29"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3617,7 +3651,7 @@
         <v>213</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
@@ -3669,16 +3703,16 @@
         <v>79</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R4" s="2">
-        <v>18856361920</v>
+      <c r="R4" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3710,7 +3744,7 @@
         <v>79</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>170</v>
@@ -3718,8 +3752,8 @@
       <c r="Q5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3751,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>171</v>
@@ -3792,7 +3826,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.15">
@@ -3821,7 +3855,7 @@
         <v>108</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
@@ -4019,8 +4053,8 @@
       <c r="Q16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R16" s="2">
-        <v>18856361920</v>
+      <c r="R16" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.15">
@@ -4060,8 +4094,8 @@
       <c r="Q17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R17" s="2">
-        <v>1</v>
+      <c r="R17" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.15">
@@ -4331,10 +4365,10 @@
         <v>73</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -4454,6 +4488,513 @@
       </c>
       <c r="R33" s="2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="15" max="15" width="49.875" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Config/case.xlsx
+++ b/Config/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="233">
   <si>
     <t>testNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,6 +923,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3542,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3711,8 +3717,8 @@
       <c r="Q4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>229</v>
+      <c r="R4" s="7">
+        <v>18856361920</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3752,8 +3758,8 @@
       <c r="Q5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>231</v>
+      <c r="R5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4703,7 +4709,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5002,4 +5008,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="7">
+        <v>18856361920</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>